--- a/Collections/United_Kingdom/#British_India#Regular#[1834-1947]#circulation_quality.xlsx
+++ b/Collections/United_Kingdom/#British_India#Regular#[1834-1947]#circulation_quality.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\British_colonies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923A0AB6-6D37-4DEA-AF8A-7C98E90A2A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E596FA-45EB-427F-B0AD-C5A0FCE97371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="¹⁄₁₂ anna" sheetId="28" r:id="rId1"/>
@@ -6316,10 +6316,10 @@
   <dimension ref="A1:L118"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="12" ySplit="2" topLeftCell="M42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="2" topLeftCell="M69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L86" sqref="L86"/>
+      <selection pane="bottomRight" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -10167,7 +10167,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K104" s="16" t="s">
         <v>0</v>
@@ -10724,7 +10724,7 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:A2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I46 I44 I50 I52 I56 I58 I109 I112">
+  <conditionalFormatting sqref="I44 I46 I50 I52 I56 I58 I109 I112">
     <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10741,7 +10741,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J46 J44 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J83 J85 J87 J89 J91 J93 J95 J97 J99 J101 J103 J105 J109">
+  <conditionalFormatting sqref="J44 J46 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J83 J85 J87 J89 J91 J93 J95 J97 J99 J101 J103 J105 J109">
     <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10758,7 +10758,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43 I31 I47 I53 I55 I57 I113">
+  <conditionalFormatting sqref="I31 I43 I47 I53 I55 I57 I113">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10775,7 +10775,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J31 J17 J43 J45 J47 J51 J55 J57 J59 J61 J63 J65 J67 J82 J84 J86 J88 J90 J94 J96 J98 J100 J102 J104 J106">
+  <conditionalFormatting sqref="J17 J31 J43 J45 J47 J51 J55 J57 J59 J61 J63 J65 J67 J82 J84 J86 J88 J90 J94 J96 J98 J100 J102 J104 J106">
     <cfRule type="colorScale" priority="48">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10894,7 +10894,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J77 J75 J79">
+  <conditionalFormatting sqref="J75 J77 J79">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -10911,7 +10911,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J78 J76 J80">
+  <conditionalFormatting sqref="J76 J78 J80">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -14473,11 +14473,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5730C32-1A5E-4FB1-96E8-10D79C153B33}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="11" ySplit="2" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B123" sqref="B123"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18567,7 +18567,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I109 I54 I56 I58 I60 I62 I64 I66 I68 I70">
+  <conditionalFormatting sqref="I54 I109 I56 I58 I60 I62 I64 I66 I68 I70">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18584,7 +18584,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I110 I31">
+  <conditionalFormatting sqref="I31 I110">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18635,7 +18635,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I57 I55 I59 I61 I63 I65 I67 I69">
+  <conditionalFormatting sqref="I55 I57 I59 I61 I63 I65 I67 I69">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18725,7 +18725,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I79 I77">
+  <conditionalFormatting sqref="I77 I79">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18742,7 +18742,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I78 I76 I80">
+  <conditionalFormatting sqref="I76 I78 I80">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18754,7 +18754,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84 I82 I86 I88 I90 I92 I94 I96 I98 I100 I102 I104 I106">
+  <conditionalFormatting sqref="I82 I84 I86 I88 I90 I92 I94 I96 I98 I100 I102 I104 I106">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18771,7 +18771,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85 I83 I87 I89 I91 I93 I95 I97 I99 I101 I103 I105">
+  <conditionalFormatting sqref="I83 I85 I87 I89 I91 I93 I95 I97 I99 I101 I103 I105">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -24522,11 +24522,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE61ED8-131B-4AC0-97FA-F578C8C9229D}">
   <dimension ref="A1:P122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="16" ySplit="2" topLeftCell="Q72" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S83" sqref="S83"/>
+      <selection pane="bottomRight" activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -30308,7 +30308,7 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="F1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L50 L48 L76 L87 L91 L93 L99 L101 L103 L105 L107 L109 L113 L116 L52 L56 L58 L60 L62 L64 L66 L68 L70 L72 L74">
+  <conditionalFormatting sqref="L48 L50 L76 L87 L91 L93 L99 L101 L103 L105 L107 L109 L113 L116 L52 L56 L58 L60 L62 L64 L66 L68 L70 L72 L74">
     <cfRule type="colorScale" priority="78">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30325,7 +30325,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K48 K50 K99 K101 K113 K116 K52 K56 K58 K60 K62 K64 K66 K68 K70 K72 K74">
+  <conditionalFormatting sqref="K50 K48 K99 K101 K113 K116 K52 K56 K58 K60 K62 K64 K66 K68 K70 K72 K74">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30342,7 +30342,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34 L47 L49 L86 L88 L90 L92 L94 L100 L102 L104 L108 L110 L112 L117">
+  <conditionalFormatting sqref="L47 L34 L49 L86 L88 L90 L92 L94 L100 L102 L104 L108 L110 L112 L117">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30359,7 +30359,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K34 M34 K47 K98 K100 K102 K104 K110 K112 K117 K114:K115">
+  <conditionalFormatting sqref="M34 K34 K47 K98 K100 K102 K104 K110 K112 K117 K114:K115">
     <cfRule type="colorScale" priority="74">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30495,7 +30495,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K53 K51 K55 K57 K59 K61 K63 K65 K67 K69 K71 K73">
+  <conditionalFormatting sqref="K51 K53 K55 K57 K59 K61 K63 K65 K67 K69 K71 K73">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30507,7 +30507,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L53 L51 L55 L57 L59 L61 L63 L65 L67 L69 L71 L73">
+  <conditionalFormatting sqref="L51 L53 L55 L57 L59 L61 L63 L65 L67 L69 L71 L73">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -35979,7 +35979,7 @@
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="J47 J113 J115">
+  <conditionalFormatting sqref="J113 J47 J115">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -35996,7 +35996,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K47 K45 K113 K115">
+  <conditionalFormatting sqref="K45 K47 K113 K115">
     <cfRule type="colorScale" priority="42">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -36013,7 +36013,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J32 J112">
+  <conditionalFormatting sqref="J112 J32">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -36025,7 +36025,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K46 K32 K112 K114">
+  <conditionalFormatting sqref="K32 K46 K112 K114">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -39959,7 +39959,7 @@
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="C1:F1"/>
   </mergeCells>
-  <conditionalFormatting sqref="I85 I83 I87 I89 I93 I95 I97 I105 I107 I109 I112 I114 I75 I77:I78 I81">
+  <conditionalFormatting sqref="I83 I85 I87 I89 I93 I95 I97 I105 I107 I109 I112 I114 I75 I77:I78 I81">
     <cfRule type="colorScale" priority="50">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -39976,7 +39976,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I84 I82 I86 I88 I92 I94 I96 I104 I108 I111 I113 I76 I79">
+  <conditionalFormatting sqref="I82 I84 I86 I88 I92 I94 I96 I104 I108 I111 I113 I76 I79">
     <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -39993,7 +39993,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J95 J93 J97 J99 J103 J107 J109 J112 J114">
+  <conditionalFormatting sqref="J93 J95 J97 J99 J103 J107 J109 J112 J114">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -40010,7 +40010,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J96 J94 J98 J102 J104 J108 J111 J113">
+  <conditionalFormatting sqref="J94 J96 J98 J102 J104 J108 J111 J113">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -47598,7 +47598,7 @@
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="L58 L49 L84 L121 L123 L127 L131 L133 L135 L143 L147 L151 L154 L159">
+  <conditionalFormatting sqref="L49 L58 L84 L121 L123 L127 L131 L133 L135 L143 L147 L151 L154 L159">
     <cfRule type="colorScale" priority="230">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -47615,7 +47615,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M51 M49 M84 M97 M121 M123 M125 M127 M131 M133 M135 M137 M141 M143 M147 M151 M159">
+  <conditionalFormatting sqref="M49 M51 M84 M97 M121 M123 M125 M127 M131 M133 M135 M137 M141 M143 M147 M151 M159">
     <cfRule type="colorScale" priority="228">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -47632,7 +47632,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M48 M36 M50 M56 M83 M120 M122 M124 M126 M128 M132 M134 M136 M138 M142 M149">
+  <conditionalFormatting sqref="M36 M48 M50 M56 M83 M120 M122 M124 M126 M128 M132 M134 M136 M138 M142 M149">
     <cfRule type="colorScale" priority="222">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -47644,7 +47644,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48 L36 L50 L83 L120 L122 L126 L128 L132 L134 L136 L144 L149 L152 L156">
+  <conditionalFormatting sqref="L36 L48 L50 L83 L120 L122 L126 L128 L132 L134 L136 L144 L149 L152 L156">
     <cfRule type="colorScale" priority="224">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -48929,7 +48929,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M113 M111 M115 M117">
+  <conditionalFormatting sqref="M111 M113 M115 M117">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -48946,7 +48946,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M114 M112 M116 M118">
+  <conditionalFormatting sqref="M112 M114 M116 M118">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -52636,7 +52636,7 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G88 G90">
+  <conditionalFormatting sqref="G90 G88">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -52677,7 +52677,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88 H90">
+  <conditionalFormatting sqref="H90 H88">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -55463,7 +55463,7 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="F13:G13"/>
   </mergeCells>
-  <conditionalFormatting sqref="I51 I57 I61 I63">
+  <conditionalFormatting sqref="I57 I51 I61 I63">
     <cfRule type="colorScale" priority="90">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -55480,7 +55480,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J53 J51 J57 J59 J61 J63 J65 J67 J69 J71 J73 J75">
+  <conditionalFormatting sqref="J51 J53 J57 J59 J61 J63 J65 J67 J69 J71 J73 J75">
     <cfRule type="colorScale" priority="88">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -55497,7 +55497,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I48 I36 I50 I56 I58 I60 I62">
+  <conditionalFormatting sqref="I36 I48 I50 I56 I58 I60 I62">
     <cfRule type="colorScale" priority="84">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -55514,7 +55514,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J50 J36 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J72 J74">
+  <conditionalFormatting sqref="J36 J50 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J72 J74">
     <cfRule type="colorScale" priority="82">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/United_Kingdom/#British_India#Regular#[1834-1947]#circulation_quality.xlsx
+++ b/Collections/United_Kingdom/#British_India#Regular#[1834-1947]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\United_Kingdom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E596FA-45EB-427F-B0AD-C5A0FCE97371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF02970-05B6-44C9-832E-AC0F9049CDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="¹⁄₁₂ anna" sheetId="28" r:id="rId1"/>
@@ -1463,7 +1463,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10635" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10615" uniqueCount="629">
   <si>
     <t>-</t>
   </si>
@@ -3049,12 +3049,6 @@
     <t>PM</t>
   </si>
   <si>
-    <t>1944 </t>
-  </si>
-  <si>
-    <t>1944 L</t>
-  </si>
-  <si>
     <t>98.997.000</t>
   </si>
   <si>
@@ -3140,12 +3134,6 @@
   </si>
   <si>
     <t>Nickel brass</t>
-  </si>
-  <si>
-    <t>1942 </t>
-  </si>
-  <si>
-    <t>1943 </t>
   </si>
   <si>
     <t>7.945.000</t>
@@ -3283,24 +3271,6 @@
     <t>343.680.000</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Large 4, Bombay</t>
-  </si>
-  <si>
-    <t>Small 4, Bombay</t>
-  </si>
-  <si>
-    <t>Large 3, Bombay</t>
-  </si>
-  <si>
-    <t>Small 3, Bombay</t>
-  </si>
-  <si>
-    <t>Lahore</t>
-  </si>
-  <si>
     <t>133.000.004</t>
   </si>
   <si>
@@ -3446,7 +3416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3519,14 +3489,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -3785,7 +3747,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3885,32 +3847,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3983,7 +3927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3995,15 +3939,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -4011,15 +3946,6 @@
     <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="248">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -5980,6 +5906,15 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -6008,9 +5943,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="247"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="246" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="245"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6334,28 +6269,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -10343,7 +10278,7 @@
         <v>313</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="F109" s="5" t="s">
         <v>511</v>
@@ -10382,7 +10317,7 @@
         <v>313</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F110" s="5" t="s">
         <v>517</v>
@@ -10457,7 +10392,7 @@
         <v>313</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F112" s="5" t="s">
         <v>515</v>
@@ -10496,7 +10431,7 @@
         <v>313</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>514</v>
@@ -10737,7 +10672,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44 I46 I50 I52 I56 I58 I109 I112">
-    <cfRule type="containsText" dxfId="247" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="244" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10754,7 +10689,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J44 J46 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J83 J85 J87 J89 J91 J93 J95 J97 J99 J101 J103 J105 J109">
-    <cfRule type="containsText" dxfId="246" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="243" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10771,7 +10706,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 I43 I47 I53 I55 I57 I113">
-    <cfRule type="containsText" dxfId="245" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="242" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10788,7 +10723,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J17 J31 J43 J45 J47 J51 J55 J57 J59 J61 J63 J65 J67 J82 J84 J86 J88 J90 J94 J96 J98 J100 J102 J104 J106">
-    <cfRule type="containsText" dxfId="244" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="241" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10805,7 +10740,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K31">
-    <cfRule type="containsText" dxfId="243" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="240" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10822,7 +10757,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="242" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="239" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10839,7 +10774,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
-    <cfRule type="containsText" dxfId="241" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="238" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10856,7 +10791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J72">
-    <cfRule type="containsText" dxfId="240" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="237" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10873,7 +10808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J73">
-    <cfRule type="containsText" dxfId="239" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="236" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10890,7 +10825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J74">
-    <cfRule type="containsText" dxfId="238" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="235" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10907,7 +10842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75 J77 J79">
-    <cfRule type="containsText" dxfId="237" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="234" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10924,7 +10859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J76 J78 J80">
-    <cfRule type="containsText" dxfId="236" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="233" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10941,7 +10876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I93">
-    <cfRule type="containsText" dxfId="235" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="232" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10958,7 +10893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I106">
-    <cfRule type="containsText" dxfId="234" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="231" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10975,7 +10910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I98">
-    <cfRule type="containsText" dxfId="233" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="230" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10992,7 +10927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I97">
-    <cfRule type="containsText" dxfId="232" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="229" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11009,7 +10944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I96">
-    <cfRule type="containsText" dxfId="231" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="228" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11026,7 +10961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I95">
-    <cfRule type="containsText" dxfId="230" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="227" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11043,7 +10978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I94">
-    <cfRule type="containsText" dxfId="229" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="226" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11060,7 +10995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="containsText" dxfId="228" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="225" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11077,7 +11012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J110">
-    <cfRule type="containsText" dxfId="227" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="224" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11109,28 +11044,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="48" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -12447,7 +12382,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J5">
-    <cfRule type="containsText" dxfId="27" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12464,7 +12399,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="containsText" dxfId="26" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12481,7 +12416,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="25" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12498,7 +12433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12515,7 +12450,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12532,7 +12467,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="22" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12549,7 +12484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12566,7 +12501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="containsText" dxfId="20" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12583,7 +12518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12600,7 +12535,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12617,7 +12552,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="17" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12649,29 +12584,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="20"/>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51" t="s">
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -14070,7 +14005,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsText" dxfId="16" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14087,7 +14022,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L12">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14104,7 +14039,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14121,7 +14056,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14138,7 +14073,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="12" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14155,7 +14090,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14172,7 +14107,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K12">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14189,7 +14124,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14206,7 +14141,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L15">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14223,7 +14158,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14240,7 +14175,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14257,7 +14192,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14274,7 +14209,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14291,7 +14226,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14303,13 +14238,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14317,11 +14252,9 @@
     <col min="1" max="1" width="4.81640625" customWidth="1"/>
     <col min="2" max="2" width="23.90625" customWidth="1"/>
     <col min="3" max="3" width="61.81640625" customWidth="1"/>
-    <col min="9" max="9" width="18.81640625" customWidth="1"/>
-    <col min="10" max="10" width="17.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -14332,7 +14265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -14341,7 +14274,7 @@
       </c>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -14350,113 +14283,7 @@
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="8" spans="1:12" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="H8" s="35" t="s">
-        <v>602</v>
-      </c>
-      <c r="I8" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="36"/>
-    </row>
-    <row r="9" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H9" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="I9" s="39"/>
-      <c r="J9" s="73" t="s">
-        <v>603</v>
-      </c>
-      <c r="K9" s="73"/>
-      <c r="L9" s="38"/>
-    </row>
-    <row r="10" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H10" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>608</v>
-      </c>
-      <c r="J10" s="73" t="s">
-        <v>604</v>
-      </c>
-      <c r="K10" s="73"/>
-      <c r="L10" s="38"/>
-    </row>
-    <row r="11" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H11" s="37" t="s">
-        <v>560</v>
-      </c>
-      <c r="I11" s="39"/>
-      <c r="J11" s="73" t="s">
-        <v>605</v>
-      </c>
-      <c r="K11" s="73"/>
-      <c r="L11" s="38"/>
-    </row>
-    <row r="12" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H12" s="37" t="s">
-        <v>560</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>601</v>
-      </c>
-      <c r="J12" s="73" t="s">
-        <v>606</v>
-      </c>
-      <c r="K12" s="73"/>
-      <c r="L12" s="38"/>
-    </row>
-    <row r="13" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H13" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="I13" s="39"/>
-      <c r="J13" s="73" t="s">
-        <v>603</v>
-      </c>
-      <c r="K13" s="73"/>
-      <c r="L13" s="38"/>
-    </row>
-    <row r="14" spans="1:12" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="37" t="s">
-        <v>528</v>
-      </c>
-      <c r="I14" s="39" t="s">
-        <v>599</v>
-      </c>
-      <c r="J14" s="73" t="s">
-        <v>604</v>
-      </c>
-      <c r="K14" s="73"/>
-      <c r="L14" s="38"/>
-    </row>
-    <row r="15" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H15" s="40" t="s">
-        <v>529</v>
-      </c>
-      <c r="I15" s="42" t="s">
-        <v>600</v>
-      </c>
-      <c r="J15" s="74" t="s">
-        <v>607</v>
-      </c>
-      <c r="K15" s="74"/>
-      <c r="L15" s="43"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-  </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{9A09EC9A-C2A6-43A2-B93A-AFF9035BA602}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{A2CF6927-F775-4EA4-A38A-9A37A60FF718}"/>
@@ -14473,7 +14300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5730C32-1A5E-4FB1-96E8-10D79C153B33}">
   <dimension ref="A1:K117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -14491,27 +14318,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -18546,7 +18373,7 @@
     <mergeCell ref="H1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="I83 I85 I87 I89 I91 I93 I95 I97 I99 I101 I103 I105">
-    <cfRule type="containsText" dxfId="226" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="223" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18563,7 +18390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H109">
-    <cfRule type="containsText" dxfId="225" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="222" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18580,7 +18407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I54 I109 I56 I58 I60 I62 I64 I66 I68 I70">
-    <cfRule type="containsText" dxfId="224" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="221" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18597,7 +18424,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I31 I110">
-    <cfRule type="containsText" dxfId="223" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="220" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18614,7 +18441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J31">
-    <cfRule type="containsText" dxfId="222" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="219" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18631,7 +18458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="221" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="218" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18648,7 +18475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55 I57 I59 I61 I63 I65 I67 I69">
-    <cfRule type="containsText" dxfId="220" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="217" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18677,7 +18504,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I73">
-    <cfRule type="containsText" dxfId="219" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="216" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18694,12 +18521,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I72">
-    <cfRule type="containsText" dxfId="218" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="215" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74">
-    <cfRule type="containsText" dxfId="217" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="214" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18716,12 +18543,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I75">
-    <cfRule type="containsText" dxfId="216" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="213" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I76 I78 I80">
-    <cfRule type="containsText" dxfId="215" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="212" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18738,7 +18565,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I77 I79">
-    <cfRule type="containsText" dxfId="214" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="211" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18767,11 +18594,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82 I84 I86 I88 I90 I92 I94 I96 I98 I100 I102 I104 I106">
-    <cfRule type="containsText" dxfId="213" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="210" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I83 I85 I87 I89 I91 I93 I95 I97 I99 I101 I103 I105">
+  <conditionalFormatting sqref="I85 I83 I87 I89 I91 I93 I95 I97 I99 I101 I103 I105">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -18796,7 +18623,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I108">
-    <cfRule type="containsText" dxfId="212" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="209" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18829,30 +18656,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="58" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="51" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="45" t="s">
         <v>521</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -23164,7 +22991,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P97" s="38"/>
+      <c r="P97" s="35"/>
     </row>
     <row r="98" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="22">
@@ -23210,7 +23037,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P98" s="41"/>
+      <c r="P98" s="36"/>
     </row>
     <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="22">
@@ -23256,7 +23083,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P99" s="38"/>
+      <c r="P99" s="35"/>
     </row>
     <row r="100" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="22">
@@ -23302,7 +23129,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P100" s="38"/>
+      <c r="P100" s="35"/>
     </row>
     <row r="101" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="22">
@@ -23348,7 +23175,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P101" s="38"/>
+      <c r="P101" s="35"/>
     </row>
     <row r="102" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="22">
@@ -23394,7 +23221,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P102" s="38"/>
+      <c r="P102" s="35"/>
     </row>
     <row r="103" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="22">
@@ -23440,7 +23267,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P103" s="38"/>
+      <c r="P103" s="35"/>
     </row>
     <row r="104" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="22">
@@ -23486,7 +23313,7 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="P104" s="38"/>
+      <c r="P104" s="35"/>
     </row>
     <row r="105" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="22">
@@ -23855,10 +23682,10 @@
         <v>525</v>
       </c>
       <c r="D113" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>12</v>
@@ -23867,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I113" s="13" t="s">
         <v>0</v>
@@ -23900,22 +23727,22 @@
         <v>525</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G114" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H114" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>531</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>533</v>
       </c>
       <c r="J114" s="4">
         <v>0</v>
@@ -23945,10 +23772,10 @@
         <v>525</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F115" s="5" t="s">
         <v>12</v>
@@ -23987,10 +23814,10 @@
         <v>525</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>12</v>
@@ -24029,10 +23856,10 @@
         <v>525</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E117" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="F117" s="5" t="s">
         <v>12</v>
@@ -24071,13 +23898,13 @@
         <v>525</v>
       </c>
       <c r="D118" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G118" s="5" t="s">
         <v>12</v>
@@ -24113,13 +23940,13 @@
         <v>525</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="G119" s="13" t="s">
         <v>0</v>
@@ -24200,14 +24027,14 @@
         <v>525</v>
       </c>
       <c r="D121" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="5" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H121" s="13" t="s">
         <v>0</v>
@@ -24253,7 +24080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J112">
-    <cfRule type="containsText" dxfId="211" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="208" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24270,7 +24097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J113">
-    <cfRule type="containsText" dxfId="210" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="207" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24299,7 +24126,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J114">
-    <cfRule type="containsText" dxfId="209" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="206" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24316,7 +24143,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K114">
-    <cfRule type="containsText" dxfId="208" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="205" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24333,12 +24160,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J121">
-    <cfRule type="containsText" dxfId="207" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="204" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K121">
-    <cfRule type="containsText" dxfId="206" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="203" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24355,7 +24182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L113">
-    <cfRule type="containsText" dxfId="205" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="202" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24372,7 +24199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L114">
-    <cfRule type="containsText" dxfId="204" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="201" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24401,7 +24228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M114">
-    <cfRule type="containsText" dxfId="203" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24418,7 +24245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118">
-    <cfRule type="containsText" dxfId="202" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24435,7 +24262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115:J116">
-    <cfRule type="containsText" dxfId="201" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24452,12 +24279,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L115">
-    <cfRule type="containsText" dxfId="200" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J117">
-    <cfRule type="containsText" dxfId="199" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24486,17 +24313,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J119">
-    <cfRule type="containsText" dxfId="198" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118">
-    <cfRule type="containsText" dxfId="197" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M118">
-    <cfRule type="containsText" dxfId="196" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24540,32 +24367,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="63" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="63" t="s">
-        <v>630</v>
-      </c>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="L1" s="58"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -24672,13 +24499,13 @@
         <v>44</v>
       </c>
       <c r="E4" s="31"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="60" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="60" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="13" t="s">
@@ -24721,11 +24548,11 @@
         <v>43</v>
       </c>
       <c r="E5" s="32"/>
-      <c r="F5" s="68"/>
+      <c r="F5" s="62"/>
       <c r="G5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="68"/>
+      <c r="H5" s="62"/>
       <c r="I5" s="13" t="s">
         <v>0</v>
       </c>
@@ -25802,7 +25629,7 @@
       <c r="H27" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I27" s="66" t="s">
+      <c r="I27" s="60" t="s">
         <v>35</v>
       </c>
       <c r="J27" s="13" t="s">
@@ -25849,7 +25676,7 @@
       <c r="H28" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="I28" s="67"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="13" t="s">
         <v>0</v>
       </c>
@@ -29769,17 +29596,17 @@
         <v>512</v>
       </c>
       <c r="C112" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D112" s="12" t="s">
         <v>544</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="5" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="H112" s="13" t="s">
         <v>0</v>
@@ -29818,17 +29645,17 @@
         <v>512</v>
       </c>
       <c r="C113" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D113" s="12" t="s">
         <v>544</v>
-      </c>
-      <c r="D113" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="5" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>0</v>
@@ -29867,14 +29694,14 @@
         <v>512</v>
       </c>
       <c r="C114" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="D114" s="12" t="s">
         <v>544</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>546</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G114" s="13" t="s">
         <v>0</v>
@@ -29916,17 +29743,17 @@
         <v>512</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D115" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H115" s="13" t="s">
         <v>0</v>
@@ -29962,17 +29789,17 @@
         <v>512</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="5" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>0</v>
@@ -30011,17 +29838,17 @@
         <v>512</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>0</v>
@@ -30321,11 +30148,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L48 L50 L76 L87 L91 L93 L99 L101 L103 L105 L107 L109 L113 L116 L52 L56 L58 L60 L62 L64 L66 L68 L70 L72 L74">
-    <cfRule type="containsText" dxfId="195" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50 K48 K99 K101 K113 K116 K52 K56 K58 K60 K62 K64 K66 K68 K70 K72 K74">
+  <conditionalFormatting sqref="K48 K50 K99 K101 K113 K116 K52 K56 K58 K60 K62 K64 K66 K68 K70 K72 K74">
     <cfRule type="colorScale" priority="80">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30338,11 +30165,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K48 K50 K99 K101 K113 K116 K52 K56 K58 K60 K62 K64 K66 K68 K70 K72 K74">
-    <cfRule type="containsText" dxfId="194" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L47 L34 L49 L86 L88 L90 L92 L94 L100 L102 L104 L108 L110 L112 L117">
+  <conditionalFormatting sqref="L34 L47 L49 L86 L88 L90 L92 L94 L100 L102 L104 L108 L110 L112 L117">
     <cfRule type="colorScale" priority="72">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30355,7 +30182,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L34 L47 L49 L86 L88 L90 L92 L94 L100 L102 L104 L108 L110 L112 L117">
-    <cfRule type="containsText" dxfId="193" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30372,7 +30199,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K34 M34 K47 K98 K100 K102 K104 K110 K112 K117 K114:K115">
-    <cfRule type="containsText" dxfId="192" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30389,7 +30216,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="containsText" dxfId="191" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30406,7 +30233,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N27:N28">
-    <cfRule type="containsText" dxfId="190" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30423,7 +30250,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30">
-    <cfRule type="containsText" dxfId="189" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30440,7 +30267,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K5">
-    <cfRule type="containsText" dxfId="188" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30457,7 +30284,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M5">
-    <cfRule type="containsText" dxfId="187" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30474,7 +30301,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
-    <cfRule type="containsText" dxfId="186" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30491,7 +30318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="185" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30507,7 +30334,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L51 L53 L55 L57 L59 L61 L63 L65 L67 L69 L71 L73">
+  <conditionalFormatting sqref="L53 L51 L55 L57 L59 L61 L63 L65 L67 L69 L71 L73">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -30520,12 +30347,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L51 L53 L55 L57 L59 L61 L63 L65 L67 L69 L71 L73">
-    <cfRule type="containsText" dxfId="184" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K51 K53 K55 K57 K59 K61 K63 K65 K67 K69 K71 K73">
-    <cfRule type="containsText" dxfId="183" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30542,7 +30369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77">
-    <cfRule type="containsText" dxfId="182" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30559,7 +30386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L78">
-    <cfRule type="containsText" dxfId="181" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30576,7 +30403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="180" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30593,7 +30420,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L84">
-    <cfRule type="containsText" dxfId="179" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30610,7 +30437,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L83">
-    <cfRule type="containsText" dxfId="178" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30627,7 +30454,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="177" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30644,7 +30471,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L82">
-    <cfRule type="containsText" dxfId="176" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30661,7 +30488,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L85">
-    <cfRule type="containsText" dxfId="175" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30678,7 +30505,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L81">
-    <cfRule type="containsText" dxfId="174" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30695,7 +30522,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L115">
-    <cfRule type="containsText" dxfId="173" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30729,30 +30556,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="58" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="51" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="62"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="56"/>
     </row>
     <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -34991,7 +34818,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P96" s="38"/>
+      <c r="P96" s="35"/>
     </row>
     <row r="97" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="21">
@@ -35037,7 +34864,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P97" s="38"/>
+      <c r="P97" s="35"/>
     </row>
     <row r="98" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="21">
@@ -35083,7 +34910,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P98" s="38"/>
+      <c r="P98" s="35"/>
     </row>
     <row r="99" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="21">
@@ -35129,7 +34956,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P99" s="38"/>
+      <c r="P99" s="35"/>
     </row>
     <row r="100" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="21">
@@ -35175,7 +35002,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P100" s="38"/>
+      <c r="P100" s="35"/>
     </row>
     <row r="101" spans="1:16" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="21">
@@ -35221,7 +35048,7 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="P101" s="43"/>
+      <c r="P101" s="37"/>
     </row>
     <row r="102" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="21">
@@ -35682,16 +35509,16 @@
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E112" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>558</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="G112" s="5" t="s">
-        <v>562</v>
       </c>
       <c r="H112" s="13" t="s">
         <v>0</v>
@@ -35725,16 +35552,16 @@
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F113" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>0</v>
@@ -35768,16 +35595,16 @@
       </c>
       <c r="C114" s="12"/>
       <c r="D114" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F114" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H114" s="13" t="s">
         <v>0</v>
@@ -35811,13 +35638,13 @@
       </c>
       <c r="C115" s="12"/>
       <c r="D115" s="12" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G115" s="5" t="s">
         <v>12</v>
@@ -35853,25 +35680,25 @@
         <v>512</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F116" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>0</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="J116" s="4">
         <v>0</v>
@@ -35898,17 +35725,17 @@
         <v>512</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="13" t="s">
         <v>0</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>0</v>
@@ -35939,16 +35766,16 @@
       </c>
       <c r="C118" s="12"/>
       <c r="D118" s="12" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>12</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>0</v>
@@ -35992,7 +35819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47 J113 J115">
-    <cfRule type="containsText" dxfId="172" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36009,7 +35836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K45 K47 K113 K115">
-    <cfRule type="containsText" dxfId="171" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36038,7 +35865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32 J112">
-    <cfRule type="containsText" dxfId="170" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36055,7 +35882,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32 K46 K112 K114">
-    <cfRule type="containsText" dxfId="169" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36072,12 +35899,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32">
-    <cfRule type="containsText" dxfId="168" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118">
-    <cfRule type="containsText" dxfId="167" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36094,7 +35921,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K118">
-    <cfRule type="containsText" dxfId="166" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36111,7 +35938,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116">
-    <cfRule type="containsText" dxfId="165" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36128,7 +35955,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K116">
-    <cfRule type="containsText" dxfId="164" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36145,7 +35972,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="163" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36162,7 +35989,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4">
-    <cfRule type="containsText" dxfId="162" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36179,7 +36006,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="161" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36196,7 +36023,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15">
-    <cfRule type="containsText" dxfId="160" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36213,7 +36040,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K117">
-    <cfRule type="containsText" dxfId="159" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36245,27 +36072,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="59" t="s">
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="64" t="s">
+      <c r="H1" s="54"/>
+      <c r="I1" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="J1" s="65"/>
+      <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -39581,19 +39408,19 @@
         <v>353</v>
       </c>
       <c r="D107" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="I107" s="4">
         <v>0</v>
@@ -39617,19 +39444,19 @@
         <v>353</v>
       </c>
       <c r="D108" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="I108" s="4">
         <v>0</v>
@@ -39653,19 +39480,19 @@
         <v>353</v>
       </c>
       <c r="D109" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G109" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="I109" s="4">
         <v>0</v>
@@ -39689,19 +39516,19 @@
         <v>353</v>
       </c>
       <c r="D110" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E110" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="G110" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="H110" s="5" t="s">
         <v>580</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>585</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>584</v>
       </c>
       <c r="I110" s="4">
         <v>0</v>
@@ -39722,19 +39549,19 @@
         <v>353</v>
       </c>
       <c r="D111" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="I111" s="4">
         <v>0</v>
@@ -39759,16 +39586,16 @@
       </c>
       <c r="D112" s="12"/>
       <c r="E112" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="I112" s="4">
         <v>0</v>
@@ -39793,16 +39620,16 @@
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I113" s="4">
         <v>0</v>
@@ -39827,16 +39654,16 @@
       </c>
       <c r="D114" s="12"/>
       <c r="E114" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="I114" s="4">
         <v>0</v>
@@ -39861,16 +39688,16 @@
       </c>
       <c r="D115" s="12"/>
       <c r="E115" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="I115" s="4">
         <v>0</v>
@@ -39895,16 +39722,16 @@
       </c>
       <c r="D116" s="12"/>
       <c r="E116" s="12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="I116" s="4">
         <v>1</v>
@@ -39929,16 +39756,16 @@
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="I117" s="4">
         <v>0</v>
@@ -39972,7 +39799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I83 I85 I87 I89 I93 I95 I97 I105 I107 I109 I112 I114 I75 I77:I78 I81">
-    <cfRule type="containsText" dxfId="158" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -39989,7 +39816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I82 I84 I86 I88 I92 I94 I96 I104 I108 I111 I113 I76 I79">
-    <cfRule type="containsText" dxfId="157" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40006,7 +39833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J93 J95 J97 J99 J103 J107 J109 J112 J114">
-    <cfRule type="containsText" dxfId="156" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40023,7 +39850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J94 J96 J98 J102 J104 J108 J111 J113">
-    <cfRule type="containsText" dxfId="155" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40040,7 +39867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I110">
-    <cfRule type="containsText" dxfId="154" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40057,7 +39884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J110">
-    <cfRule type="containsText" dxfId="153" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40074,7 +39901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I115">
-    <cfRule type="containsText" dxfId="152" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40091,7 +39918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J115">
-    <cfRule type="containsText" dxfId="151" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40108,7 +39935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I116">
-    <cfRule type="containsText" dxfId="150" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40125,7 +39952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J116">
-    <cfRule type="containsText" dxfId="149" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40142,7 +39969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I117">
-    <cfRule type="containsText" dxfId="148" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40159,7 +39986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J117">
-    <cfRule type="containsText" dxfId="147" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40193,32 +40020,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="33"/>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -40235,7 +40062,7 @@
         <v>467</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>9</v>
@@ -46402,7 +46229,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q137" s="38"/>
+      <c r="Q137" s="35"/>
     </row>
     <row r="138" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="21">
@@ -46448,7 +46275,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q138" s="38"/>
+      <c r="Q138" s="35"/>
     </row>
     <row r="139" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="21">
@@ -46496,7 +46323,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q139" s="38"/>
+      <c r="Q139" s="35"/>
     </row>
     <row r="140" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="21">
@@ -46544,7 +46371,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q140" s="38"/>
+      <c r="Q140" s="35"/>
     </row>
     <row r="141" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="21">
@@ -46590,7 +46417,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q141" s="38"/>
+      <c r="Q141" s="35"/>
     </row>
     <row r="142" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="21">
@@ -46636,7 +46463,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q142" s="38"/>
+      <c r="Q142" s="35"/>
     </row>
     <row r="143" spans="1:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="21">
@@ -46682,7 +46509,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="Q143" s="41"/>
+      <c r="Q143" s="36"/>
     </row>
     <row r="144" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="21">
@@ -46831,23 +46658,23 @@
         <v>512</v>
       </c>
       <c r="C147" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D147" s="12" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G147" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="J147" s="13" t="s">
         <v>0</v>
@@ -46880,17 +46707,17 @@
         <v>512</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>12</v>
@@ -46929,17 +46756,17 @@
         <v>512</v>
       </c>
       <c r="C149" s="12" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G149" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>12</v>
@@ -46978,23 +46805,23 @@
         <v>512</v>
       </c>
       <c r="C150" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G150" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="J150" s="13" t="s">
         <v>0</v>
@@ -47018,8 +46845,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S150" s="69" t="s">
-        <v>547</v>
+      <c r="S150" s="63" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="151" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -47030,23 +46857,23 @@
         <v>512</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G151" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="J151" s="13" t="s">
         <v>0</v>
@@ -47070,7 +46897,7 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S151" s="69"/>
+      <c r="S151" s="63"/>
     </row>
     <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="21">
@@ -47080,19 +46907,19 @@
         <v>512</v>
       </c>
       <c r="C152" s="12" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E152" s="12" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G152" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>12</v>
@@ -47122,8 +46949,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S152" s="44" t="s">
-        <v>619</v>
+      <c r="S152" s="38" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -47134,22 +46961,22 @@
         <v>512</v>
       </c>
       <c r="C153" s="12" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E153" s="12" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G153" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="I153" s="13" t="s">
         <v>0</v>
@@ -47176,8 +47003,8 @@
         <f t="shared" ref="P153" si="3">IF(OR(AND(L153&gt;1,L153&lt;&gt;"-"),AND(M153&gt;1,M153&lt;&gt;"-"),AND(N153&gt;1,N153&lt;&gt;"-"),AND(O153&gt;1,O153&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="S153" s="44" t="s">
-        <v>583</v>
+      <c r="S153" s="38" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -47188,19 +47015,19 @@
         <v>512</v>
       </c>
       <c r="C154" s="12" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E154" s="12" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="F154" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H154" s="5" t="s">
         <v>12</v>
@@ -47230,8 +47057,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S154" s="44" t="s">
-        <v>622</v>
+      <c r="S154" s="38" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -47242,22 +47069,22 @@
         <v>512</v>
       </c>
       <c r="C155" s="12" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E155" s="12" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F155" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="I155" s="13" t="s">
         <v>0</v>
@@ -47284,8 +47111,8 @@
         <f t="shared" ref="P155" si="4">IF(OR(AND(L155&gt;1,L155&lt;&gt;"-"),AND(M155&gt;1,M155&lt;&gt;"-"),AND(N155&gt;1,N155&lt;&gt;"-"),AND(O155&gt;1,O155&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
-      <c r="S155" s="44" t="s">
-        <v>624</v>
+      <c r="S155" s="38" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="156" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -47296,19 +47123,19 @@
         <v>512</v>
       </c>
       <c r="C156" s="12" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>12</v>
@@ -47338,8 +47165,8 @@
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="S156" s="44" t="s">
-        <v>626</v>
+      <c r="S156" s="38" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -47350,22 +47177,22 @@
         <v>512</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="E157" s="12" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F157" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="I157" s="13" t="s">
         <v>0</v>
@@ -47401,17 +47228,17 @@
         <v>512</v>
       </c>
       <c r="C158" s="12" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G158" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H158" s="13" t="s">
         <v>0</v>
@@ -47423,7 +47250,7 @@
         <v>0</v>
       </c>
       <c r="K158" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="L158" s="16" t="s">
         <v>0</v>
@@ -47450,23 +47277,23 @@
         <v>512</v>
       </c>
       <c r="C159" s="12" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G159" s="12" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="J159" s="13" t="s">
         <v>0</v>
@@ -47499,29 +47326,29 @@
         <v>512</v>
       </c>
       <c r="C160" s="12" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G160" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="J160" s="13" t="s">
         <v>0</v>
       </c>
       <c r="K160" s="5" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="L160" s="4">
         <v>0</v>
@@ -47548,23 +47375,23 @@
         <v>512</v>
       </c>
       <c r="C161" s="12" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12" t="s">
         <v>465</v>
       </c>
       <c r="G161" s="12" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="J161" s="13" t="s">
         <v>0</v>
@@ -47611,7 +47438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49 L58 L84 L121 L123 L127 L131 L133 L135 L143 L147 L151 L154 L159">
-    <cfRule type="containsText" dxfId="146" priority="229" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="229" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47628,7 +47455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M49 M51 M84 M97 M121 M123 M125 M127 M131 M133 M135 M137 M141 M143 M147 M151 M159">
-    <cfRule type="containsText" dxfId="145" priority="227" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="227" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47657,7 +47484,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36 L48 L50 L83 L120 L122 L126 L128 L132 L134 L136 L144 L149 L152 L156">
-    <cfRule type="containsText" dxfId="144" priority="223" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="223" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47674,7 +47501,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M36 M48 M50 M56 M83 M120 M122 M124 M126 M128 M132 M134 M136 M138 M142 M149">
-    <cfRule type="containsText" dxfId="143" priority="221" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="221" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47691,12 +47518,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N36">
-    <cfRule type="containsText" dxfId="142" priority="219" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="219" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L161">
-    <cfRule type="containsText" dxfId="141" priority="217" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="217" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47713,7 +47540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M161">
-    <cfRule type="containsText" dxfId="140" priority="215" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="215" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47730,7 +47557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M160">
-    <cfRule type="containsText" dxfId="139" priority="209" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="209" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47747,7 +47574,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L160">
-    <cfRule type="containsText" dxfId="138" priority="211" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="211" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47776,7 +47603,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="containsText" dxfId="137" priority="189" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="189" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47793,7 +47620,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N12">
-    <cfRule type="containsText" dxfId="136" priority="187" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="187" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47810,7 +47637,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11">
-    <cfRule type="containsText" dxfId="135" priority="185" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="185" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47827,7 +47654,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11">
-    <cfRule type="containsText" dxfId="134" priority="197" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="197" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47844,12 +47671,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M12">
-    <cfRule type="containsText" dxfId="133" priority="193" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="193" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L10">
-    <cfRule type="containsText" dxfId="132" priority="191" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="191" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47866,7 +47693,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L13">
-    <cfRule type="containsText" dxfId="131" priority="183" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="183" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47883,7 +47710,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14">
-    <cfRule type="containsText" dxfId="130" priority="181" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="181" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47900,7 +47727,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="129" priority="179" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="179" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47917,7 +47744,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54">
-    <cfRule type="containsText" dxfId="128" priority="177" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="177" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47934,7 +47761,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M57">
-    <cfRule type="containsText" dxfId="127" priority="159" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="159" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47963,7 +47790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M52">
-    <cfRule type="containsText" dxfId="126" priority="171" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="171" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47980,7 +47807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M53">
-    <cfRule type="containsText" dxfId="125" priority="169" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="169" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -47997,7 +47824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L55">
-    <cfRule type="containsText" dxfId="124" priority="167" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="167" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48050,12 +47877,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59">
-    <cfRule type="containsText" dxfId="123" priority="155" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="155" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M60">
-    <cfRule type="containsText" dxfId="122" priority="153" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="153" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48084,7 +47911,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L61">
-    <cfRule type="containsText" dxfId="121" priority="149" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="149" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48101,7 +47928,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62">
-    <cfRule type="containsText" dxfId="120" priority="145" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="145" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48118,7 +47945,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L63">
-    <cfRule type="containsText" dxfId="119" priority="143" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="143" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48135,27 +47962,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M64">
-    <cfRule type="containsText" dxfId="118" priority="141" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="141" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M68">
-    <cfRule type="containsText" dxfId="117" priority="133" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="133" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L65">
-    <cfRule type="containsText" dxfId="116" priority="139" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="139" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L66">
-    <cfRule type="containsText" dxfId="115" priority="137" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="137" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67">
-    <cfRule type="containsText" dxfId="114" priority="135" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="135" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48172,7 +47999,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L69">
-    <cfRule type="containsText" dxfId="113" priority="131" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="131" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48201,12 +48028,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M72">
-    <cfRule type="containsText" dxfId="112" priority="107" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="107" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80">
-    <cfRule type="containsText" dxfId="111" priority="101" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="101" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48223,7 +48050,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L73">
-    <cfRule type="containsText" dxfId="110" priority="123" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="123" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48240,12 +48067,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L74">
-    <cfRule type="containsText" dxfId="109" priority="121" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="121" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="containsText" dxfId="108" priority="119" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="119" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48262,7 +48089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L76">
-    <cfRule type="containsText" dxfId="107" priority="117" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="117" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48279,7 +48106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L77">
-    <cfRule type="containsText" dxfId="106" priority="115" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="115" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48308,7 +48135,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L79">
-    <cfRule type="containsText" dxfId="105" priority="111" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="111" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48325,7 +48152,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M78">
-    <cfRule type="containsText" dxfId="104" priority="109" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="109" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48342,7 +48169,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L70">
-    <cfRule type="containsText" dxfId="103" priority="105" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="105" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48359,7 +48186,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L71">
-    <cfRule type="containsText" dxfId="102" priority="103" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="103" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48376,7 +48203,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L85">
-    <cfRule type="containsText" dxfId="101" priority="95" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="95" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48393,7 +48220,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L81">
-    <cfRule type="containsText" dxfId="100" priority="99" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="99" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48410,7 +48237,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82">
-    <cfRule type="containsText" dxfId="99" priority="97" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48427,7 +48254,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M86">
-    <cfRule type="containsText" dxfId="98" priority="93" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="93" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48444,7 +48271,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M87">
-    <cfRule type="containsText" dxfId="97" priority="91" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="91" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48461,7 +48288,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L88">
-    <cfRule type="containsText" dxfId="96" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48478,7 +48305,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L89">
-    <cfRule type="containsText" dxfId="95" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48495,7 +48322,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L90">
-    <cfRule type="containsText" dxfId="94" priority="85" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="85" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48512,7 +48339,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91">
-    <cfRule type="containsText" dxfId="93" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48529,7 +48356,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L93">
-    <cfRule type="containsText" dxfId="92" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48546,7 +48373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M93">
-    <cfRule type="containsText" dxfId="91" priority="79" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="79" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48563,7 +48390,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L92">
-    <cfRule type="containsText" dxfId="90" priority="77" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="77" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48580,7 +48407,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M92">
-    <cfRule type="containsText" dxfId="89" priority="75" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="75" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48597,7 +48424,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L94">
-    <cfRule type="containsText" dxfId="88" priority="73" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="73" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48614,7 +48441,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M94">
-    <cfRule type="containsText" dxfId="87" priority="71" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="71" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48631,7 +48458,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L95">
-    <cfRule type="containsText" dxfId="86" priority="69" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="69" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48648,7 +48475,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L96">
-    <cfRule type="containsText" dxfId="85" priority="67" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="67" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48665,7 +48492,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M96">
-    <cfRule type="containsText" dxfId="84" priority="65" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="65" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48682,7 +48509,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L99">
-    <cfRule type="containsText" dxfId="83" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48699,7 +48526,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M99">
-    <cfRule type="containsText" dxfId="82" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48716,7 +48543,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L98">
-    <cfRule type="containsText" dxfId="81" priority="59" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="59" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48733,7 +48560,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M98">
-    <cfRule type="containsText" dxfId="80" priority="57" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="57" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48750,7 +48577,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L100">
-    <cfRule type="containsText" dxfId="79" priority="55" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="55" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48767,17 +48594,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M100">
-    <cfRule type="containsText" dxfId="78" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L109">
-    <cfRule type="containsText" dxfId="77" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M105">
-    <cfRule type="containsText" dxfId="76" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48794,7 +48621,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L102">
-    <cfRule type="containsText" dxfId="75" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48811,7 +48638,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L103">
-    <cfRule type="containsText" dxfId="74" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48828,7 +48655,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L104">
-    <cfRule type="containsText" dxfId="73" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48857,7 +48684,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L106">
-    <cfRule type="containsText" dxfId="72" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48874,7 +48701,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L107">
-    <cfRule type="containsText" dxfId="71" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48891,7 +48718,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M107">
-    <cfRule type="containsText" dxfId="70" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48908,7 +48735,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L108">
-    <cfRule type="containsText" dxfId="69" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48925,7 +48752,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M111 M113 M115 M117">
-    <cfRule type="containsText" dxfId="68" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48942,11 +48769,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M112 M114 M116 M118">
-    <cfRule type="containsText" dxfId="67" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M112 M114 M116 M118">
+  <conditionalFormatting sqref="M114 M112 M116 M118">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -48971,12 +48798,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L118">
-    <cfRule type="containsText" dxfId="66" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M119">
-    <cfRule type="containsText" dxfId="65" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49005,7 +48832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L150">
-    <cfRule type="containsText" dxfId="64" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49022,7 +48849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M150">
-    <cfRule type="containsText" dxfId="63" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49039,7 +48866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L148">
-    <cfRule type="containsText" dxfId="62" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49056,7 +48883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M148">
-    <cfRule type="containsText" dxfId="61" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49085,12 +48912,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L153">
-    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O158">
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49107,7 +48934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L155">
-    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49124,7 +48951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L157">
-    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49141,7 +48968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O160">
-    <cfRule type="containsText" dxfId="56" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -49173,25 +49000,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="D1" s="41"/>
+      <c r="E1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49"/>
-      <c r="G1" s="51" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="45" t="s">
         <v>503</v>
       </c>
-      <c r="H1" s="52"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -52636,7 +52463,7 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
   </mergeCells>
-  <conditionalFormatting sqref="G90 G88">
+  <conditionalFormatting sqref="G88 G90">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -52673,11 +52500,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G88 G90">
-    <cfRule type="containsText" dxfId="55" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H90 H88">
+  <conditionalFormatting sqref="H88 H90">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -52690,17 +52517,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88 H90">
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G89">
-    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="containsText" dxfId="52" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -52734,28 +52561,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="47" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="18"/>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48" t="s">
+      <c r="D1" s="64"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51" t="s">
+      <c r="G1" s="43"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="19" t="s">
         <v>7</v>
       </c>
@@ -53168,10 +52995,10 @@
         <v>77</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="G13" s="72"/>
+      <c r="G13" s="66"/>
       <c r="H13" s="13" t="s">
         <v>0</v>
       </c>
@@ -55476,7 +55303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51 I57 I61 I63">
-    <cfRule type="containsText" dxfId="51" priority="89" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="89" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55493,7 +55320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51 J53 J57 J59 J61 J63 J65 J67 J69 J71 J73 J75">
-    <cfRule type="containsText" dxfId="50" priority="87" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="87" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55510,7 +55337,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I36 I48 I50 I56 I58 I60 I62">
-    <cfRule type="containsText" dxfId="49" priority="83" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="83" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55527,7 +55354,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36 J50 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J72 J74">
-    <cfRule type="containsText" dxfId="48" priority="81" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="81" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55544,7 +55371,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4">
-    <cfRule type="containsText" dxfId="47" priority="61" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55561,7 +55388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="containsText" dxfId="46" priority="63" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="63" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55578,7 +55405,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="45" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55595,7 +55422,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10">
-    <cfRule type="containsText" dxfId="44" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55612,7 +55439,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11">
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55629,7 +55456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14">
-    <cfRule type="containsText" dxfId="42" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55646,7 +55473,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="containsText" dxfId="41" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55663,7 +55490,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14">
-    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55692,7 +55519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55709,7 +55536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11">
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55726,7 +55553,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="37" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55743,12 +55570,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55765,7 +55592,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="34" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55782,7 +55609,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55799,7 +55626,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13">
-    <cfRule type="containsText" dxfId="32" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55816,7 +55643,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36">
-    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55833,7 +55660,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I49">
-    <cfRule type="containsText" dxfId="30" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55850,7 +55677,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49">
-    <cfRule type="containsText" dxfId="29" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -55867,7 +55694,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
